--- a/data/listados/Lejano/L_L_Sirenas.xlsx
+++ b/data/listados/Lejano/L_L_Sirenas.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e2ef5c481a427bbc/Trabajo/Value Creation Analytics SAS/Clientes/ICESI/Producto 3. TrabajoCampoyAnalisis/3. Listados/Lejano/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5420f79c2d515b70/All/PacificoTaskForce/ptfr/data/listados/Lejano/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_8BAEFEF09D3974A71BA4B522FD96F56A072C0C4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0299CCB7-C8B6-4207-BFD2-E004138DAF57}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="11_8BAEFEF09D3974A71BA4B522FD96F56A072C0C4A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{97234505-3E7B-4BA7-AE79-AD9B2A539315}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sirenas" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sirenas!$B$3:$D$44</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -246,18 +249,18 @@
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,492 +548,497 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="2.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="2.77734375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36" customWidth="1"/>
-    <col min="4" max="4" width="11.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" s="2">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B6" s="2">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="3">
+        <v>12</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="3">
+        <v>14</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="3">
+        <v>16</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="3">
+        <v>18</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="2">
+        <v>19</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="2">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="2">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="3">
+        <v>28</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2">
+        <v>29</v>
+      </c>
+      <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="3">
+        <v>30</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="2">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="3">
+        <v>32</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="2">
+        <v>33</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="3">
+        <v>34</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="2">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="3">
+        <v>36</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <v>37</v>
+      </c>
+      <c r="C27" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="3">
+        <v>38</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="2">
+        <v>39</v>
+      </c>
+      <c r="C29" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="3">
+        <v>40</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="2">
+        <v>41</v>
+      </c>
+      <c r="C31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="2">
+        <v>21</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="3">
+        <v>22</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="3">
+        <v>24</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="2">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C35" t="s">
         <v>0</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D35" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B5" s="5">
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C36" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D36" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B6" s="3">
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="2">
         <v>3</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C37" t="s">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D37" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B7" s="5">
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C38" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D38" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B8" s="3">
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="2">
         <v>5</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C39" t="s">
         <v>4</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D39" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B9" s="5">
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C40" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D40" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B10" s="3">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="2">
         <v>7</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C41" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D41" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B11" s="5">
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D42" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B12" s="3">
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="2">
         <v>9</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C43" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D43" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B13" s="5">
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="3">
         <v>10</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C44" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D44" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B14" s="3">
-        <v>11</v>
-      </c>
-      <c r="C14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B15" s="5">
-        <v>12</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B16" s="3">
-        <v>13</v>
-      </c>
-      <c r="C16" t="s">
-        <v>9</v>
-      </c>
-      <c r="D16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B17" s="5">
-        <v>14</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B18" s="3">
-        <v>15</v>
-      </c>
-      <c r="C18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B19" s="5">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B20" s="3">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B21" s="5">
-        <v>18</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B22" s="3">
-        <v>19</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B23" s="5">
-        <v>20</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B24" s="3">
-        <v>21</v>
-      </c>
-      <c r="C24" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B25" s="5">
-        <v>22</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B26" s="3">
-        <v>23</v>
-      </c>
-      <c r="C26" t="s">
-        <v>43</v>
-      </c>
-      <c r="D26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B27" s="5">
-        <v>24</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B28" s="3">
-        <v>25</v>
-      </c>
-      <c r="C28" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B29" s="5">
-        <v>26</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B30" s="3">
-        <v>27</v>
-      </c>
-      <c r="C30" t="s">
-        <v>27</v>
-      </c>
-      <c r="D30" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B31" s="5">
-        <v>28</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B32" s="3">
-        <v>29</v>
-      </c>
-      <c r="C32" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B33" s="5">
-        <v>30</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B34" s="3">
-        <v>31</v>
-      </c>
-      <c r="C34" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B35" s="5">
-        <v>32</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B36" s="3">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B37" s="5">
-        <v>34</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B38" s="3">
-        <v>35</v>
-      </c>
-      <c r="C38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B39" s="5">
-        <v>36</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B40" s="3">
-        <v>37</v>
-      </c>
-      <c r="C40" t="s">
-        <v>37</v>
-      </c>
-      <c r="D40" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B41" s="5">
-        <v>38</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B42" s="3">
-        <v>39</v>
-      </c>
-      <c r="C42" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B43" s="5">
-        <v>40</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B44" s="3">
-        <v>41</v>
-      </c>
-      <c r="C44" t="s">
-        <v>41</v>
-      </c>
-      <c r="D44" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.45">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:D44" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:D44">
+      <sortCondition ref="D3:D44"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="2">
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B45:D45"/>
